--- a/SchedulingData/dynamic14/pso/scheduling1_19.xlsx
+++ b/SchedulingData/dynamic14/pso/scheduling1_19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,55 +466,55 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>50.2</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>25.68</v>
+        <v>25.84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>38.2</v>
+        <v>47.8</v>
       </c>
       <c r="E3" t="n">
-        <v>26.88</v>
+        <v>25.92</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>50.2</v>
+        <v>47.8</v>
       </c>
       <c r="D4" t="n">
-        <v>118.76</v>
+        <v>111.36</v>
       </c>
       <c r="E4" t="n">
-        <v>22.944</v>
+        <v>22.664</v>
       </c>
     </row>
     <row r="5">
@@ -523,131 +523,131 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>63.4</v>
+        <v>45.48</v>
       </c>
       <c r="E5" t="n">
-        <v>25.84</v>
+        <v>26.152</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>38.2</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>85.40000000000001</v>
+        <v>62.78</v>
       </c>
       <c r="E6" t="n">
-        <v>22.8</v>
+        <v>25.892</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>61.6</v>
+        <v>88.5</v>
       </c>
       <c r="E7" t="n">
-        <v>25.52</v>
+        <v>25.32</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>63.4</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>103.68</v>
+        <v>59.14</v>
       </c>
       <c r="E8" t="n">
-        <v>22.452</v>
+        <v>26.256</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>45.48</v>
       </c>
       <c r="D9" t="n">
-        <v>71.31999999999999</v>
+        <v>111.54</v>
       </c>
       <c r="E9" t="n">
-        <v>27.008</v>
+        <v>23.136</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>85.40000000000001</v>
+        <v>111.36</v>
       </c>
       <c r="D10" t="n">
-        <v>153.66</v>
+        <v>186.12</v>
       </c>
       <c r="E10" t="n">
-        <v>19.104</v>
+        <v>20.288</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>118.76</v>
+        <v>62.78</v>
       </c>
       <c r="D11" t="n">
-        <v>167.52</v>
+        <v>106.34</v>
       </c>
       <c r="E11" t="n">
-        <v>19.688</v>
+        <v>23.156</v>
       </c>
     </row>
     <row r="12">
@@ -656,17 +656,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>153.66</v>
+        <v>88.5</v>
       </c>
       <c r="D12" t="n">
-        <v>234.88</v>
+        <v>165.02</v>
       </c>
       <c r="E12" t="n">
-        <v>15.072</v>
+        <v>21.288</v>
       </c>
     </row>
     <row r="13">
@@ -675,22 +675,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>103.68</v>
+        <v>111.54</v>
       </c>
       <c r="D13" t="n">
-        <v>157.42</v>
+        <v>207.2</v>
       </c>
       <c r="E13" t="n">
-        <v>18.708</v>
+        <v>19.66</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -698,165 +698,165 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>59.14</v>
       </c>
       <c r="D14" t="n">
-        <v>44.44</v>
+        <v>117.68</v>
       </c>
       <c r="E14" t="n">
-        <v>26.256</v>
+        <v>22.512</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>61.6</v>
+        <v>165.02</v>
       </c>
       <c r="D15" t="n">
-        <v>114.5</v>
+        <v>224.44</v>
       </c>
       <c r="E15" t="n">
-        <v>23.32</v>
+        <v>16.976</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>71.31999999999999</v>
+        <v>186.12</v>
       </c>
       <c r="D16" t="n">
-        <v>119.86</v>
+        <v>241.2</v>
       </c>
       <c r="E16" t="n">
-        <v>23.784</v>
+        <v>16.9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>167.52</v>
+        <v>106.34</v>
       </c>
       <c r="D17" t="n">
-        <v>223.52</v>
+        <v>162.96</v>
       </c>
       <c r="E17" t="n">
-        <v>15.728</v>
+        <v>19.124</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>44.44</v>
+        <v>207.2</v>
       </c>
       <c r="D18" t="n">
-        <v>114.34</v>
+        <v>254.9</v>
       </c>
       <c r="E18" t="n">
-        <v>21.396</v>
+        <v>16.02</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>223.52</v>
+        <v>162.96</v>
       </c>
       <c r="D19" t="n">
-        <v>272.18</v>
+        <v>213.86</v>
       </c>
       <c r="E19" t="n">
-        <v>12.992</v>
+        <v>16.164</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>272.18</v>
+        <v>254.9</v>
       </c>
       <c r="D20" t="n">
-        <v>326.84</v>
+        <v>309.9</v>
       </c>
       <c r="E20" t="n">
-        <v>10.616</v>
+        <v>11.16</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>119.86</v>
+        <v>213.86</v>
       </c>
       <c r="D21" t="n">
-        <v>168.46</v>
+        <v>290.7</v>
       </c>
       <c r="E21" t="n">
-        <v>20.064</v>
+        <v>12.58</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>114.34</v>
+        <v>224.44</v>
       </c>
       <c r="D22" t="n">
-        <v>172.6</v>
+        <v>269.24</v>
       </c>
       <c r="E22" t="n">
-        <v>18.18</v>
+        <v>13.136</v>
       </c>
     </row>
     <row r="23">
@@ -865,188 +865,188 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>234.88</v>
+        <v>269.24</v>
       </c>
       <c r="D23" t="n">
-        <v>291.82</v>
+        <v>300.94</v>
       </c>
       <c r="E23" t="n">
-        <v>11.488</v>
+        <v>11.096</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>172.6</v>
+        <v>117.68</v>
       </c>
       <c r="D24" t="n">
-        <v>231.92</v>
+        <v>154.18</v>
       </c>
       <c r="E24" t="n">
-        <v>13.868</v>
+        <v>19.992</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>168.46</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>205.66</v>
+        <v>115.6</v>
       </c>
       <c r="E25" t="n">
-        <v>16.984</v>
+        <v>21.76</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>291.82</v>
+        <v>154.18</v>
       </c>
       <c r="D26" t="n">
-        <v>337.06</v>
+        <v>223.68</v>
       </c>
       <c r="E26" t="n">
-        <v>8.584</v>
+        <v>15.672</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>326.84</v>
+        <v>223.68</v>
       </c>
       <c r="D27" t="n">
-        <v>397.9</v>
+        <v>280.74</v>
       </c>
       <c r="E27" t="n">
-        <v>8.119999999999999</v>
+        <v>13.076</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>205.66</v>
+        <v>309.9</v>
       </c>
       <c r="D28" t="n">
-        <v>259.26</v>
+        <v>351.06</v>
       </c>
       <c r="E28" t="n">
-        <v>14.224</v>
+        <v>8.664</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>259.26</v>
+        <v>300.94</v>
       </c>
       <c r="D29" t="n">
-        <v>319.26</v>
+        <v>349.62</v>
       </c>
       <c r="E29" t="n">
-        <v>10.844</v>
+        <v>7.848</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>114.5</v>
+        <v>351.06</v>
       </c>
       <c r="D30" t="n">
-        <v>165.9</v>
+        <v>389.72</v>
       </c>
       <c r="E30" t="n">
-        <v>18.82</v>
+        <v>5.928</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>157.42</v>
+        <v>115.6</v>
       </c>
       <c r="D31" t="n">
-        <v>224.9</v>
+        <v>173.9</v>
       </c>
       <c r="E31" t="n">
-        <v>14.6</v>
+        <v>18.04</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>397.9</v>
+        <v>290.7</v>
       </c>
       <c r="D32" t="n">
-        <v>461.98</v>
+        <v>346</v>
       </c>
       <c r="E32" t="n">
-        <v>5.832</v>
+        <v>9.16</v>
       </c>
     </row>
     <row r="33">
@@ -1055,74 +1055,74 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>231.92</v>
+        <v>241.2</v>
       </c>
       <c r="D33" t="n">
-        <v>275.7</v>
+        <v>322.1</v>
       </c>
       <c r="E33" t="n">
-        <v>10.62</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>224.9</v>
+        <v>280.74</v>
       </c>
       <c r="D34" t="n">
-        <v>271.26</v>
+        <v>324.54</v>
       </c>
       <c r="E34" t="n">
-        <v>11.584</v>
+        <v>10.316</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>271.26</v>
+        <v>346</v>
       </c>
       <c r="D35" t="n">
-        <v>324.6</v>
+        <v>410.9</v>
       </c>
       <c r="E35" t="n">
-        <v>8.359999999999999</v>
+        <v>5.78</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>275.7</v>
+        <v>349.62</v>
       </c>
       <c r="D36" t="n">
-        <v>327.86</v>
+        <v>411.72</v>
       </c>
       <c r="E36" t="n">
-        <v>8.023999999999999</v>
+        <v>4.728</v>
       </c>
     </row>
     <row r="37">
@@ -1131,74 +1131,74 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>165.9</v>
+        <v>410.9</v>
       </c>
       <c r="D37" t="n">
-        <v>213.52</v>
+        <v>474.48</v>
       </c>
       <c r="E37" t="n">
-        <v>16.168</v>
+        <v>3.052</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>327.86</v>
+        <v>389.72</v>
       </c>
       <c r="D38" t="n">
-        <v>381.06</v>
+        <v>460.92</v>
       </c>
       <c r="E38" t="n">
-        <v>3.344</v>
+        <v>1.448</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>213.52</v>
+        <v>460.92</v>
       </c>
       <c r="D39" t="n">
-        <v>264.22</v>
+        <v>539.8200000000001</v>
       </c>
       <c r="E39" t="n">
-        <v>13.208</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>381.06</v>
+        <v>173.9</v>
       </c>
       <c r="D40" t="n">
-        <v>456.07</v>
+        <v>217.36</v>
       </c>
       <c r="E40" t="n">
-        <v>30</v>
+        <v>14.824</v>
       </c>
     </row>
     <row r="41">
@@ -1207,17 +1207,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>456.07</v>
+        <v>322.1</v>
       </c>
       <c r="D41" t="n">
-        <v>512.83</v>
+        <v>350.5</v>
       </c>
       <c r="E41" t="n">
-        <v>26.524</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="42">
@@ -1226,74 +1226,74 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>264.22</v>
+        <v>474.48</v>
       </c>
       <c r="D42" t="n">
-        <v>350.74</v>
+        <v>518.46</v>
       </c>
       <c r="E42" t="n">
-        <v>9.176</v>
+        <v>0.764</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>337.06</v>
+        <v>518.46</v>
       </c>
       <c r="D43" t="n">
-        <v>416.44</v>
+        <v>593.83</v>
       </c>
       <c r="E43" t="n">
-        <v>4.736</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>512.83</v>
+        <v>217.36</v>
       </c>
       <c r="D44" t="n">
-        <v>574.83</v>
+        <v>270.9</v>
       </c>
       <c r="E44" t="n">
-        <v>22.444</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>350.74</v>
+        <v>350.5</v>
       </c>
       <c r="D45" t="n">
-        <v>400.44</v>
+        <v>416.2</v>
       </c>
       <c r="E45" t="n">
-        <v>5.336</v>
+        <v>6.24</v>
       </c>
     </row>
     <row r="46">
@@ -1302,36 +1302,36 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>461.98</v>
+        <v>270.9</v>
       </c>
       <c r="D46" t="n">
-        <v>510.36</v>
+        <v>352.32</v>
       </c>
       <c r="E46" t="n">
-        <v>3.104</v>
+        <v>7.568</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>416.44</v>
+        <v>352.32</v>
       </c>
       <c r="D47" t="n">
-        <v>497.54</v>
+        <v>430.58</v>
       </c>
       <c r="E47" t="n">
-        <v>2.696</v>
+        <v>3.872</v>
       </c>
     </row>
     <row r="48">
@@ -1340,22 +1340,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>319.26</v>
+        <v>324.54</v>
       </c>
       <c r="D48" t="n">
-        <v>384.56</v>
+        <v>384.58</v>
       </c>
       <c r="E48" t="n">
-        <v>7.424</v>
+        <v>7.412</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -1363,89 +1363,146 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>384.56</v>
+        <v>430.58</v>
       </c>
       <c r="D49" t="n">
-        <v>424.98</v>
+        <v>471.1</v>
       </c>
       <c r="E49" t="n">
-        <v>4.512</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>424.98</v>
+        <v>471.1</v>
       </c>
       <c r="D50" t="n">
-        <v>482.78</v>
+        <v>541.08</v>
       </c>
       <c r="E50" t="n">
-        <v>0.872</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>482.78</v>
+        <v>411.72</v>
       </c>
       <c r="D51" t="n">
-        <v>557.9400000000001</v>
+        <v>482.44</v>
       </c>
       <c r="E51" t="n">
-        <v>30</v>
+        <v>1.736</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>557.9400000000001</v>
+        <v>482.44</v>
       </c>
       <c r="D52" t="n">
-        <v>595.04</v>
+        <v>575.37</v>
       </c>
       <c r="E52" t="n">
-        <v>27.48</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>324.6</v>
+        <v>384.58</v>
       </c>
       <c r="D53" t="n">
-        <v>401.32</v>
+        <v>426.78</v>
       </c>
       <c r="E53" t="n">
-        <v>4.328</v>
+        <v>4.332</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>4</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>pond12</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>416.2</v>
+      </c>
+      <c r="D54" t="n">
+        <v>459.12</v>
+      </c>
+      <c r="E54" t="n">
+        <v>3.588</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>4</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>pond6</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>459.12</v>
+      </c>
+      <c r="D55" t="n">
+        <v>507.56</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.364</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>4</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>depot2</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>507.56</v>
+      </c>
+      <c r="D56" t="n">
+        <v>598.63</v>
+      </c>
+      <c r="E56" t="n">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
